--- a/Output/roaming_impact_reports_per_acct/KeyBank_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/KeyBank_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,15 +547,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>61902</v>
+        <v>226852</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E12" s="4" t="n">
         <v/>
@@ -564,15 +564,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>10451</v>
+        <v>276085</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E13" s="4" t="n">
         <v/>
@@ -581,20 +581,18 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>47477</v>
+        <v>625139</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -604,197 +602,185 @@
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>4931414</v>
+        <v>4931894</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>2024-09-25</t>
-        </is>
+      <c r="E15" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>52237</v>
+        <v>27599</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>2024-08-13</t>
-        </is>
+      <c r="E16" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>27295</v>
+        <v>191877</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>2024-04-13</t>
-        </is>
+      <c r="E17" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>275061</v>
+        <v>262523</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>2024-03-19</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>612373</v>
+        <v>10451</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>2024-01-20</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>44160</v>
+        <v>61902</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2023-11-28</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>97122</v>
+        <v>684542</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>78331</v>
+        <v>53193</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2025-01-01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>226852</v>
+        <v>27295</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2025-01-01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>444399</v>
+        <v>59635</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2024-04-13</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>25078</v>
+        <v>52237</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
@@ -802,75 +788,75 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2024-04-13</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>3573726</v>
+        <v>108823</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2023-12-19</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>149961</v>
+        <v>78331</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>86045</v>
+        <v>109036</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>25808</v>
+        <v>154405</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
@@ -878,18 +864,18 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>177476</v>
+        <v>3650830</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
@@ -897,18 +883,18 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>109036</v>
+        <v>99547</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
@@ -916,18 +902,18 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>96304</v>
+        <v>44160</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
@@ -935,7 +921,7 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
@@ -961,11 +947,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>1538614</v>
+        <v>93224</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
@@ -973,18 +959,18 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>159043</v>
+        <v>450036</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
@@ -992,75 +978,75 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>235693</v>
+        <v>1543020</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2021-04-18</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>321210</v>
+        <v>169789</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>95547</v>
+        <v>238746</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>119793</v>
+        <v>321983</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
@@ -1068,94 +1054,94 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>36791</v>
+        <v>95547</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>677521</v>
+        <v>443012</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>262523</v>
+        <v>121232</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>67365</v>
+        <v>36791</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2020-07-20</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>307252</v>
+        <v>25808</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
@@ -1163,56 +1149,56 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2020-04-05</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>139730</v>
+        <v>209593</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>194659</v>
+        <v>178916</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>34718</v>
+        <v>67365</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
@@ -1220,18 +1206,18 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>546718</v>
+        <v>97122</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" s="4" t="n">
@@ -1239,18 +1225,18 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>434869</v>
+        <v>308468</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" s="4" t="n">
@@ -1258,18 +1244,18 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>2019-07-06</t>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>108633</v>
+        <v>139827</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
@@ -1277,18 +1263,18 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>2019-04-06</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>191877</v>
+        <v>194659</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" s="4" t="n">
@@ -1296,37 +1282,37 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>2019-03-24</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>52166</v>
+        <v>34718</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>2018-11-27</t>
+          <t>2019-08-14</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>108823</v>
+        <v>546751</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="4" t="n">
@@ -1334,15 +1320,34 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>2018-10-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="54"/>
+          <t>2019-08-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>108633</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>2019-04-06</t>
+        </is>
+      </c>
+    </row>
     <row r="55"/>
     <row r="56"/>
     <row r="57"/>
     <row r="58"/>
+    <row r="59"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/KeyBank_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/KeyBank_driver_summary.xlsx
@@ -547,15 +547,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
         </is>
       </c>
       <c r="B12" s="6" t="n">
-        <v>226852</v>
+        <v>10451</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E12" s="4" t="n">
         <v/>
@@ -564,15 +564,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>276085</v>
+        <v>61902</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E13" s="4" t="n">
         <v/>
@@ -581,18 +581,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>625139</v>
+        <v>54631</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v/>
+        <v>100</v>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -608,179 +610,191 @@
       <c r="D15" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E15" s="4" t="n">
-        <v/>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>27599</v>
+        <v>52237</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E16" s="4" t="n">
-        <v/>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>191877</v>
+        <v>27295</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v/>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>262523</v>
+        <v>276085</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>10451</v>
+        <v>625139</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>61902</v>
+        <v>44160</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>684542</v>
+        <v>97122</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>53193</v>
+        <v>78331</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>27295</v>
+        <v>226852</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>59635</v>
+        <v>453273</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2023-03-08</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>52237</v>
+        <v>27599</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
@@ -788,75 +802,75 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>108823</v>
+        <v>3650830</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>78331</v>
+        <v>154405</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>109036</v>
+        <v>25808</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>154405</v>
+        <v>94657</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
@@ -864,18 +878,18 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>3650830</v>
+        <v>178916</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
@@ -883,18 +897,18 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>99547</v>
+        <v>109036</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
@@ -902,18 +916,18 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>44160</v>
+        <v>99547</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
@@ -921,7 +935,7 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
@@ -947,11 +961,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>93224</v>
+        <v>1543020</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
@@ -959,18 +973,18 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-04-18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>450036</v>
+        <v>171222</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
@@ -978,75 +992,75 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>1543020</v>
+        <v>238746</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>169789</v>
+        <v>321983</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>238746</v>
+        <v>95547</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>321983</v>
+        <v>121232</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
@@ -1054,75 +1068,75 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>95547</v>
+        <v>36791</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-07-20</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>443012</v>
+        <v>684542</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>121232</v>
+        <v>262523</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-04-05</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>36791</v>
+        <v>209593</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
@@ -1130,18 +1144,18 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>25808</v>
+        <v>67365</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
@@ -1149,56 +1163,56 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>209593</v>
+        <v>308468</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>178916</v>
+        <v>139827</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>67365</v>
+        <v>194659</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
@@ -1206,18 +1220,18 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>97122</v>
+        <v>34718</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" s="4" t="n">
@@ -1225,18 +1239,18 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-08-14</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>308468</v>
+        <v>546751</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" s="4" t="n">
@@ -1244,18 +1258,18 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2019-08-10</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>139827</v>
+        <v>443012</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
@@ -1263,18 +1277,18 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-07-06</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>194659</v>
+        <v>108633</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" s="4" t="n">
@@ -1282,18 +1296,18 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-04-06</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>34718</v>
+        <v>191877</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" s="4" t="n">
@@ -1301,37 +1315,37 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2019-03-24</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>546751</v>
+        <v>61072</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
+          <t>2018-11-27</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>108633</v>
+        <v>108823</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" s="4" t="n">
@@ -1339,7 +1353,7 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>2019-04-06</t>
+          <t>2018-10-31</t>
         </is>
       </c>
     </row>

--- a/Output/roaming_impact_reports_per_acct/KeyBank_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/KeyBank_driver_summary.xlsx
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>54631</v>
+        <v>56069</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="4" t="n">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>276085</v>
+        <v>276086</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>625139</v>
+        <v>625298</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>453273</v>
+        <v>453652</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>94657</v>
+        <v>96091</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>99547</v>
+        <v>99549</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>171222</v>
+        <v>175767</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>238746</v>
+        <v>240182</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>684542</v>
+        <v>684728</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>209593</v>
+        <v>210188</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>308468</v>
+        <v>308481</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>443012</v>
+        <v>443223</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>108633</v>
+        <v>109665</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" s="4" t="n">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>61072</v>
+        <v>62515</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="4" t="n">

--- a/Output/roaming_impact_reports_per_acct/KeyBank_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/KeyBank_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,9 +63,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,15 +437,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -522,158 +519,332 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="n">
-        <v>172690</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>2021-01-19</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.130.0.5</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>778486</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2131</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E12" t="n">
+        <v>972</v>
+      </c>
+      <c r="F12" t="n">
+        <v>781660</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>22.130.0.5</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>52096</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>2020-09-28</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.30.1</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3296941</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6476</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2989</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5171</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3306406</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>20.70.30.1</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2022-01-12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>161874</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>2019-09-05</t>
-        </is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.5</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>35999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>112</v>
+      </c>
+      <c r="E14" t="n">
+        <v>67</v>
+      </c>
+      <c r="F14" t="n">
+        <v>36116</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>20.50.0.5</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>154175</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-25</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.4.2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4216368</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10356</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2464</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4601</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4229188</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>20.70.4.2</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2018-10-21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>20227</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>2019-05-11</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 21.120.0.9</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>127884</v>
+      </c>
+      <c r="C16" t="n">
+        <v>145</v>
+      </c>
+      <c r="D16" t="n">
+        <v>221</v>
+      </c>
+      <c r="E16" t="n">
+        <v>136</v>
+      </c>
+      <c r="F16" t="n">
+        <v>128250</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>21.120.0.9</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>34065</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-28</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>68085</v>
+      </c>
+      <c r="C17" t="n">
+        <v>74</v>
+      </c>
+      <c r="D17" t="n">
+        <v>33</v>
+      </c>
+      <c r="E17" t="n">
+        <v>234</v>
+      </c>
+      <c r="F17" t="n">
+        <v>68192</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>20.70.26.2</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2021-08-08</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>48540</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>2019-03-16</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.19.1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>65379</v>
+      </c>
+      <c r="C18" t="n">
+        <v>85</v>
+      </c>
+      <c r="D18" t="n">
+        <v>25</v>
+      </c>
+      <c r="E18" t="n">
+        <v>81</v>
+      </c>
+      <c r="F18" t="n">
+        <v>65489</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>20.70.19.1</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
         </is>
       </c>
     </row>
@@ -683,14 +854,35 @@
           <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
         </is>
       </c>
-      <c r="B19" s="6" t="n">
+      <c r="B19" t="n">
+        <v>184414</v>
+      </c>
+      <c r="C19" t="n">
+        <v>146</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>192</v>
+      </c>
+      <c r="F19" t="n">
         <v>184564</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" s="4" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>20.70.5.2</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>2018-11-25</t>
         </is>
@@ -699,46 +891,363 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>14221</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2018-05-08</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>154074</v>
+      </c>
+      <c r="C20" t="n">
+        <v>71</v>
+      </c>
+      <c r="D20" t="n">
+        <v>30</v>
+      </c>
+      <c r="E20" t="n">
+        <v>191</v>
+      </c>
+      <c r="F20" t="n">
+        <v>154175</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>20.70.12.5</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>172561</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>124</v>
+      </c>
+      <c r="E21" t="n">
+        <v>247</v>
+      </c>
+      <c r="F21" t="n">
+        <v>172690</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>22.30.0.11</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>48535</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>77</v>
+      </c>
+      <c r="F22" t="n">
+        <v>48540</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>20.70.8.1</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>100</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>34065</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>52</v>
+      </c>
+      <c r="F23" t="n">
+        <v>34065</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>20.70.9.1</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>100</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2019-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>52091</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>68</v>
+      </c>
+      <c r="F24" t="n">
+        <v>52096</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>100</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>20220</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>25</v>
+      </c>
+      <c r="F25" t="n">
+        <v>20227</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>20.70.10.2</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>100</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2019-05-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>161852</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14</v>
+      </c>
+      <c r="E26" t="n">
+        <v>222</v>
+      </c>
+      <c r="F26" t="n">
+        <v>161874</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>20.70.11.3</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>100</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2019-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
         </is>
       </c>
-      <c r="B21" s="6" t="n">
+      <c r="B27" t="n">
+        <v>23761</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>29</v>
+      </c>
+      <c r="F27" t="n">
         <v>23765</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" s="4" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>20.30.1.2</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>100</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>2018-01-09</t>
         </is>
       </c>
     </row>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>14221</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>40</v>
+      </c>
+      <c r="F28" t="n">
+        <v>14221</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>20.50.0.4</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>100</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2018-05-08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/KeyBank_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/KeyBank_driver_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,13 +436,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="1" max="1"/>
     <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="37" customWidth="1" min="7" max="7"/>
+    <col width="32" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="30" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
@@ -480,17 +480,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.21.2</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>885</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>80.8</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>885</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5"/>
@@ -573,32 +573,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>778486</v>
+        <v>185718</v>
       </c>
       <c r="C12" t="n">
-        <v>2131</v>
+        <v>616</v>
       </c>
       <c r="D12" t="n">
-        <v>1043</v>
+        <v>148</v>
       </c>
       <c r="E12" t="n">
-        <v>972</v>
+        <v>443</v>
       </c>
       <c r="F12" t="n">
-        <v>781660</v>
+        <v>186482</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>22.130.0.5</t>
+          <t>23.110.0.5</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -606,39 +606,39 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2025-01-01</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.30.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.250.1.2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3296941</v>
+        <v>31411</v>
       </c>
       <c r="C13" t="n">
-        <v>6476</v>
+        <v>86</v>
       </c>
       <c r="D13" t="n">
-        <v>2989</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>5171</v>
+        <v>86</v>
       </c>
       <c r="F13" t="n">
-        <v>3306406</v>
+        <v>31514</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>20.70.30.1</t>
+          <t>22.250.1.2</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -646,357 +646,357 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2022-01-12</t>
+          <t>2023-08-06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.90.1.3</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35999</v>
+        <v>127181</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>241</v>
       </c>
       <c r="D14" t="n">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="E14" t="n">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="F14" t="n">
-        <v>36116</v>
+        <v>127487</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>20.50.0.5</t>
+          <t>23.90.1.3</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="J14" t="n">
-        <v/>
+        <v>99.8</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.4.2</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.40.0.4</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4216368</v>
+        <v>78476</v>
       </c>
       <c r="C15" t="n">
-        <v>10356</v>
+        <v>78</v>
       </c>
       <c r="D15" t="n">
-        <v>2464</v>
+        <v>56</v>
       </c>
       <c r="E15" t="n">
-        <v>4601</v>
+        <v>146</v>
       </c>
       <c r="F15" t="n">
-        <v>4229188</v>
+        <v>78610</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>20.70.4.2</t>
+          <t>23.40.0.4</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2018-10-21</t>
+          <t>2024-03-09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 21.120.0.9</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127884</v>
+        <v>584784</v>
       </c>
       <c r="C16" t="n">
-        <v>145</v>
+        <v>827</v>
       </c>
       <c r="D16" t="n">
-        <v>221</v>
+        <v>463</v>
       </c>
       <c r="E16" t="n">
-        <v>136</v>
+        <v>963</v>
       </c>
       <c r="F16" t="n">
-        <v>128250</v>
+        <v>586074</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21.120.0.9</t>
+          <t>23.90.0.2</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68085</v>
+        <v>53252</v>
       </c>
       <c r="C17" t="n">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="F17" t="n">
-        <v>68192</v>
+        <v>53300</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>20.70.26.2</t>
+          <t>23.120.0.3</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.19.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>65379</v>
+        <v>18722</v>
       </c>
       <c r="C18" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="F18" t="n">
-        <v>65489</v>
+        <v>18738</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>20.70.19.1</t>
+          <t>22.130.0.5</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>184414</v>
+        <v>15506</v>
       </c>
       <c r="C19" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="F19" t="n">
-        <v>184564</v>
+        <v>15506</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>20.70.5.2</t>
+          <t>22.70.0.6</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2018-11-25</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>154074</v>
+        <v>15823</v>
       </c>
       <c r="C20" t="n">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="F20" t="n">
-        <v>154175</v>
+        <v>15827</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>20.70.12.5</t>
+          <t>23.20.1.1</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2023-12-19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>172561</v>
+        <v>156943</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="F21" t="n">
-        <v>172690</v>
+        <v>156943</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>22.30.0.11</t>
+          <t>22.0.1.5</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>2021-01-19</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="J21" t="n">
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48535</v>
+        <v>12986</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="F22" t="n">
-        <v>48540</v>
+        <v>12988</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>20.70.8.1</t>
+          <t>22.100.0.3</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1004,39 +1004,39 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2019-03-16</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34065</v>
+        <v>42439</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F23" t="n">
-        <v>34065</v>
+        <v>42440</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>20.70.9.1</t>
+          <t>22.110.1.1</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1044,39 +1044,39 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>52091</v>
+        <v>19083</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F24" t="n">
-        <v>52096</v>
+        <v>19083</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6e ax210 160mhz</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>22.0.1.1</t>
+          <t>22.170.2.1</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1084,167 +1084,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>20220</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5</v>
-      </c>
-      <c r="E25" t="n">
-        <v>25</v>
-      </c>
-      <c r="F25" t="n">
-        <v>20227</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>20.70.10.2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>100</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>2019-05-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>161852</v>
-      </c>
-      <c r="C26" t="n">
-        <v>8</v>
-      </c>
-      <c r="D26" t="n">
-        <v>14</v>
-      </c>
-      <c r="E26" t="n">
-        <v>222</v>
-      </c>
-      <c r="F26" t="n">
-        <v>161874</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>20.70.11.3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>100</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2019-09-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>23761</v>
-      </c>
-      <c r="C27" t="n">
-        <v>4</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>29</v>
-      </c>
-      <c r="F27" t="n">
-        <v>23765</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>20.30.1.2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>100</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>2018-01-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>14221</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>40</v>
-      </c>
-      <c r="F28" t="n">
-        <v>14221</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>20.50.0.4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>100</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>2018-05-08</t>
+          <t>2022-08-30</t>
         </is>
       </c>
     </row>
